--- a/sch_simulation/data/STH_params/trichuris_coverage_scenario_3b.xlsx
+++ b/sch_simulation/data/STH_params/trichuris_coverage_scenario_3b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/sch/ntd-model-sch/sch_simulation/data/STH_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6443FC-206D-9F40-88C8-8E8D0E1C85B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918AA79F-07F9-E447-836C-9EBFAFD80092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19160" activeTab="1" xr2:uid="{2B23B0C0-4BFB-41FB-ACE5-EE30D4858695}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19160" xr2:uid="{2B23B0C0-4BFB-41FB-ACE5-EE30D4858695}"/>
   </bookViews>
   <sheets>
     <sheet name="Platform Coverage" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="20">
   <si>
     <t>Country/Region</t>
   </si>
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC57624-070C-4C6C-8EF3-3B0C0B08BDC6}">
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -586,6 +586,30 @@
       <c r="N2">
         <v>0.6</v>
       </c>
+      <c r="P2">
+        <v>0.6</v>
+      </c>
+      <c r="R2">
+        <v>0.6</v>
+      </c>
+      <c r="T2">
+        <v>0.6</v>
+      </c>
+      <c r="V2">
+        <v>0.6</v>
+      </c>
+      <c r="X2">
+        <v>0.6</v>
+      </c>
+      <c r="Z2">
+        <v>0.6</v>
+      </c>
+      <c r="AB2">
+        <v>0.6</v>
+      </c>
+      <c r="AD2">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -601,34 +625,10 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <v>15</v>
-      </c>
-      <c r="P3">
-        <v>0.7</v>
-      </c>
-      <c r="R3">
-        <v>0.7</v>
-      </c>
-      <c r="T3">
-        <v>0.7</v>
-      </c>
-      <c r="V3">
-        <v>0.7</v>
-      </c>
-      <c r="X3">
-        <v>0.7</v>
-      </c>
-      <c r="Z3">
-        <v>0.7</v>
-      </c>
-      <c r="AB3">
-        <v>0.7</v>
-      </c>
-      <c r="AD3">
-        <v>0.7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
@@ -645,10 +645,10 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
@@ -656,19 +656,19 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <v>65</v>
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
@@ -682,13 +682,13 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
@@ -699,35 +699,15 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>15</v>
-      </c>
-      <c r="G8">
         <v>100</v>
       </c>
     </row>
@@ -740,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F794004A-4C7C-4E94-81C3-7E7CA0B5D399}">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -839,51 +819,6 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -917,6 +852,51 @@
         <v>1</v>
       </c>
       <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
         <v>1</v>
       </c>
     </row>
@@ -992,6 +972,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E3B750AFB9343D42B939C6ACF084A84C" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="93cd09b7eadf1f96f07e4cafc6f5cdf0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00318829-ac19-4fa6-afcb-83e1ad4ea23b" xmlns:ns3="5ffa21b6-e00b-4719-91c3-427b29c2b057" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb8f100d907d4c7940a7c9646b5f1c73" ns2:_="" ns3:_="">
     <xsd:import namespace="00318829-ac19-4fa6-afcb-83e1ad4ea23b"/>
@@ -1208,22 +1203,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6338434B-B586-489B-A269-E3728BE15AC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E0411F9-2A1E-4488-925A-5AD296329D24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E6E6D53-A4AA-4BF4-8C61-16B862AC0A51}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1240,21 +1237,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E0411F9-2A1E-4488-925A-5AD296329D24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6338434B-B586-489B-A269-E3728BE15AC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/sch_simulation/data/STH_params/trichuris_coverage_scenario_3b.xlsx
+++ b/sch_simulation/data/STH_params/trichuris_coverage_scenario_3b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/sch/ntd-model-sch/sch_simulation/data/STH_params/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\ntd-model-sch\sch_simulation\data\STH_params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918AA79F-07F9-E447-836C-9EBFAFD80092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EC21DD-A5AA-42CD-B36F-3329EC74F700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19160" xr2:uid="{2B23B0C0-4BFB-41FB-ACE5-EE30D4858695}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{2B23B0C0-4BFB-41FB-ACE5-EE30D4858695}"/>
   </bookViews>
   <sheets>
     <sheet name="Platform Coverage" sheetId="1" r:id="rId1"/>
@@ -450,20 +450,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC57624-070C-4C6C-8EF3-3B0C0B08BDC6}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+    <sheetView zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="7" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +555,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -611,7 +611,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -631,7 +631,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -651,7 +651,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -691,7 +691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -720,16 +720,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F794004A-4C7C-4E94-81C3-7E7CA0B5D399}">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
+      <selection activeCell="Z2" sqref="L2:Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -809,7 +809,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -819,8 +819,53 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -854,53 +899,8 @@
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -911,7 +911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -922,7 +922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -933,7 +933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -944,7 +944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -955,7 +955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -972,21 +972,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E3B750AFB9343D42B939C6ACF084A84C" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="93cd09b7eadf1f96f07e4cafc6f5cdf0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00318829-ac19-4fa6-afcb-83e1ad4ea23b" xmlns:ns3="5ffa21b6-e00b-4719-91c3-427b29c2b057" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb8f100d907d4c7940a7c9646b5f1c73" ns2:_="" ns3:_="">
     <xsd:import namespace="00318829-ac19-4fa6-afcb-83e1ad4ea23b"/>
@@ -1203,24 +1188,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6338434B-B586-489B-A269-E3728BE15AC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E0411F9-2A1E-4488-925A-5AD296329D24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E6E6D53-A4AA-4BF4-8C61-16B862AC0A51}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1237,4 +1220,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E0411F9-2A1E-4488-925A-5AD296329D24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6338434B-B586-489B-A269-E3728BE15AC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/sch_simulation/data/STH_params/trichuris_coverage_scenario_3b.xlsx
+++ b/sch_simulation/data/STH_params/trichuris_coverage_scenario_3b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\ntd-model-sch\sch_simulation\data\STH_params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EC21DD-A5AA-42CD-B36F-3329EC74F700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC014596-30EF-491B-951B-1D3A0163675D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{2B23B0C0-4BFB-41FB-ACE5-EE30D4858695}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{2B23B0C0-4BFB-41FB-ACE5-EE30D4858695}"/>
   </bookViews>
   <sheets>
     <sheet name="Platform Coverage" sheetId="1" r:id="rId1"/>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC57624-070C-4C6C-8EF3-3B0C0B08BDC6}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,34 +577,67 @@
       <c r="H2">
         <v>0.6</v>
       </c>
+      <c r="I2">
+        <v>0.6</v>
+      </c>
       <c r="J2">
         <v>0.6</v>
       </c>
+      <c r="K2">
+        <v>0.6</v>
+      </c>
       <c r="L2">
         <v>0.6</v>
       </c>
+      <c r="M2">
+        <v>0.6</v>
+      </c>
       <c r="N2">
         <v>0.6</v>
       </c>
+      <c r="O2">
+        <v>0.6</v>
+      </c>
       <c r="P2">
         <v>0.6</v>
       </c>
+      <c r="Q2">
+        <v>0.6</v>
+      </c>
       <c r="R2">
         <v>0.6</v>
       </c>
+      <c r="S2">
+        <v>0.6</v>
+      </c>
       <c r="T2">
         <v>0.6</v>
       </c>
+      <c r="U2">
+        <v>0.6</v>
+      </c>
       <c r="V2">
         <v>0.6</v>
       </c>
+      <c r="W2">
+        <v>0.6</v>
+      </c>
       <c r="X2">
         <v>0.6</v>
       </c>
+      <c r="Y2">
+        <v>0.6</v>
+      </c>
       <c r="Z2">
         <v>0.6</v>
       </c>
+      <c r="AA2">
+        <v>0.6</v>
+      </c>
       <c r="AB2">
+        <v>0.6</v>
+      </c>
+      <c r="AC2">
         <v>0.6</v>
       </c>
       <c r="AD2">
@@ -720,7 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F794004A-4C7C-4E94-81C3-7E7CA0B5D399}">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
+    <sheetView topLeftCell="T1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
       <selection activeCell="Z2" sqref="L2:Z2"/>
     </sheetView>
   </sheetViews>
@@ -972,6 +1005,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E3B750AFB9343D42B939C6ACF084A84C" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="93cd09b7eadf1f96f07e4cafc6f5cdf0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00318829-ac19-4fa6-afcb-83e1ad4ea23b" xmlns:ns3="5ffa21b6-e00b-4719-91c3-427b29c2b057" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb8f100d907d4c7940a7c9646b5f1c73" ns2:_="" ns3:_="">
     <xsd:import namespace="00318829-ac19-4fa6-afcb-83e1ad4ea23b"/>
@@ -1188,22 +1236,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6338434B-B586-489B-A269-E3728BE15AC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E0411F9-2A1E-4488-925A-5AD296329D24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E6E6D53-A4AA-4BF4-8C61-16B862AC0A51}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1220,21 +1270,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E0411F9-2A1E-4488-925A-5AD296329D24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6338434B-B586-489B-A269-E3728BE15AC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>